--- a/biology/Botanique/Dinobryon/Dinobryon.xlsx
+++ b/biology/Botanique/Dinobryon/Dinobryon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dinobryon est un genre d'algues dorées de la famille des Dinobryaceae. Ces espèces vivent en eau douce et en colonies. Lorsque la colonie devient trop importante, elles peuvent se transformer en kystes résistants qui peuvent rester viables durant plusieurs dizaines d'années[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dinobryon est un genre d'algues dorées de la famille des Dinobryaceae. Ces espèces vivent en eau douce et en colonies. Lorsque la colonie devient trop importante, elles peuvent se transformer en kystes résistants qui peuvent rester viables durant plusieurs dizaines d'années.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (12 septembre 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (12 septembre 2013) :
 Dinobryon acuminatum Ruttner
 Dinobryon alpinum (O.E.Imhof) Pascher (Sans vérification)
 Dinobryon americanum (J.Brunnthaler) Lemmermann (Sans vérification)
@@ -595,7 +609,7 @@
 Dinobryon unguentariforme Croome, H.U.Ling &amp; P.A.Tyler
 Dinobryon urceolatum L.Reverdin (Sans vérification)
 Dinobryon vanhoeffeni Bachmann (Sans vérification)
-Selon ITIS      (12 septembre 2013)[3] :
+Selon ITIS      (12 septembre 2013) :
 Dinobryon anuminatum Rutter
 Dinobryon balticum
 Dinobryon bavaricum Imhof
@@ -619,7 +633,7 @@
 Dinobryon utriculus F. Stein
 Dinobryon vanhoeffendii Bachm.
 Dinobryon vorax Kent
-Selon NCBI  (12 septembre 2013)[4] :
+Selon NCBI  (12 septembre 2013) :
 Dinobryon bavaricum
 Dinobryon crenulatum
 Dinobryon divergens
@@ -629,7 +643,7 @@
 Dinobryon sociale
 variété Dinobryon cylindricum
 variété Dinobryon sociale var. americana
-Selon World Register of Marine Species                               (12 septembre 2013)[5] :
+Selon World Register of Marine Species                               (12 septembre 2013) :
 Dinobryon acuminatum Ruttner
 Dinobryon balticum (Schütt) Lemmermann, 1900
 Dinobryon bavaricum Imhof, 1890
